--- a/excel_file/controle_dados.xlsx
+++ b/excel_file/controle_dados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="31">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -195,23 +195,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -404,24 +404,23 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B247"/>
+  <dimension ref="A1:B268"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A271" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -429,7 +428,7 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -437,7 +436,7 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -445,7 +444,7 @@
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -453,7 +452,7 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -461,7 +460,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -469,7 +468,7 @@
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -477,7 +476,7 @@
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -485,7 +484,7 @@
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -493,7 +492,7 @@
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -501,7 +500,7 @@
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -509,7 +508,7 @@
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -517,7 +516,7 @@
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -525,7 +524,7 @@
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -533,7 +532,7 @@
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -541,7 +540,7 @@
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -549,7 +548,7 @@
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -557,7 +556,7 @@
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -565,7 +564,7 @@
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -573,7 +572,7 @@
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -581,7 +580,7 @@
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -589,7 +588,7 @@
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -597,7 +596,7 @@
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -605,7 +604,7 @@
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -613,7 +612,7 @@
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -621,7 +620,7 @@
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -629,7 +628,7 @@
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -637,7 +636,7 @@
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -645,7 +644,7 @@
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -653,7 +652,7 @@
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -661,7 +660,7 @@
       <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -669,7 +668,7 @@
       <c r="A32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -677,7 +676,7 @@
       <c r="A33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -685,7 +684,7 @@
       <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -693,7 +692,7 @@
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -701,7 +700,7 @@
       <c r="A36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -709,7 +708,7 @@
       <c r="A37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -717,7 +716,7 @@
       <c r="A38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -725,7 +724,7 @@
       <c r="A39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -733,7 +732,7 @@
       <c r="A40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -741,7 +740,7 @@
       <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -749,7 +748,7 @@
       <c r="A42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -757,7 +756,7 @@
       <c r="A43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -765,7 +764,7 @@
       <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -773,7 +772,7 @@
       <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -781,7 +780,7 @@
       <c r="A46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -789,7 +788,7 @@
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -797,7 +796,7 @@
       <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -805,7 +804,7 @@
       <c r="A49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -813,7 +812,7 @@
       <c r="A50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -821,7 +820,7 @@
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -829,7 +828,7 @@
       <c r="A52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -837,7 +836,7 @@
       <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -845,7 +844,7 @@
       <c r="A54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -853,7 +852,7 @@
       <c r="A55" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -861,7 +860,7 @@
       <c r="A56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -869,7 +868,7 @@
       <c r="A57" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -877,7 +876,7 @@
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -885,7 +884,7 @@
       <c r="A59" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -893,7 +892,7 @@
       <c r="A60" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -901,7 +900,7 @@
       <c r="A61" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -909,7 +908,7 @@
       <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -917,7 +916,7 @@
       <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -925,7 +924,7 @@
       <c r="A64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -933,7 +932,7 @@
       <c r="A65" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -941,7 +940,7 @@
       <c r="A66" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -949,7 +948,7 @@
       <c r="A67" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -957,7 +956,7 @@
       <c r="A68" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -965,7 +964,7 @@
       <c r="A69" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -973,7 +972,7 @@
       <c r="A70" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -981,7 +980,7 @@
       <c r="A71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -989,7 +988,7 @@
       <c r="A72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -997,7 +996,7 @@
       <c r="A73" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1005,7 +1004,7 @@
       <c r="A74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1013,7 +1012,7 @@
       <c r="A75" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1021,7 +1020,7 @@
       <c r="A76" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1029,7 +1028,7 @@
       <c r="A77" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1037,7 +1036,7 @@
       <c r="A78" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1045,7 +1044,7 @@
       <c r="A79" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1053,7 +1052,7 @@
       <c r="A80" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1061,7 +1060,7 @@
       <c r="A81" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1069,7 +1068,7 @@
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1077,7 +1076,7 @@
       <c r="A83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1085,7 +1084,7 @@
       <c r="A84" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1093,7 +1092,7 @@
       <c r="A85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1101,7 +1100,7 @@
       <c r="A86" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1109,7 +1108,7 @@
       <c r="A87" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1117,7 +1116,7 @@
       <c r="A88" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1125,7 +1124,7 @@
       <c r="A89" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1133,7 +1132,7 @@
       <c r="A90" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1141,7 +1140,7 @@
       <c r="A91" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1149,7 +1148,7 @@
       <c r="A92" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1157,7 +1156,7 @@
       <c r="A93" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1165,7 +1164,7 @@
       <c r="A94" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1173,7 +1172,7 @@
       <c r="A95" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1181,7 +1180,7 @@
       <c r="A96" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1189,7 +1188,7 @@
       <c r="A97" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1197,7 +1196,7 @@
       <c r="A98" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1205,7 +1204,7 @@
       <c r="A99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1213,7 +1212,7 @@
       <c r="A100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1221,7 +1220,7 @@
       <c r="A101" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1229,7 +1228,7 @@
       <c r="A102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1237,7 +1236,7 @@
       <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1245,7 +1244,7 @@
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1253,7 +1252,7 @@
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1261,7 +1260,7 @@
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1269,7 +1268,7 @@
       <c r="A107" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1277,7 +1276,7 @@
       <c r="A108" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1285,7 +1284,7 @@
       <c r="A109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1293,7 +1292,7 @@
       <c r="A110" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1301,7 +1300,7 @@
       <c r="A111" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1309,7 +1308,7 @@
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1317,7 +1316,7 @@
       <c r="A113" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1325,7 +1324,7 @@
       <c r="A114" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1333,7 +1332,7 @@
       <c r="A115" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1341,7 +1340,7 @@
       <c r="A116" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1349,7 +1348,7 @@
       <c r="A117" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1357,7 +1356,7 @@
       <c r="A118" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1365,7 +1364,7 @@
       <c r="A119" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1373,7 +1372,7 @@
       <c r="A120" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1381,7 +1380,7 @@
       <c r="A121" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1389,7 +1388,7 @@
       <c r="A122" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1397,7 +1396,7 @@
       <c r="A123" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1405,7 +1404,7 @@
       <c r="A124" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1413,7 +1412,7 @@
       <c r="A125" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1421,7 +1420,7 @@
       <c r="A126" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1429,7 +1428,7 @@
       <c r="A127" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1437,7 +1436,7 @@
       <c r="A128" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1445,7 +1444,7 @@
       <c r="A129" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1453,7 +1452,7 @@
       <c r="A130" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1461,7 +1460,7 @@
       <c r="A131" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1469,7 +1468,7 @@
       <c r="A132" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1477,7 +1476,7 @@
       <c r="A133" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1485,7 +1484,7 @@
       <c r="A134" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1493,7 +1492,7 @@
       <c r="A135" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1501,7 +1500,7 @@
       <c r="A136" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1509,7 +1508,7 @@
       <c r="A137" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1517,7 +1516,7 @@
       <c r="A138" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1525,7 +1524,7 @@
       <c r="A139" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1533,7 +1532,7 @@
       <c r="A140" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1541,7 +1540,7 @@
       <c r="A141" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1549,7 +1548,7 @@
       <c r="A142" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1557,7 +1556,7 @@
       <c r="A143" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1565,7 +1564,7 @@
       <c r="A144" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1573,7 +1572,7 @@
       <c r="A145" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1581,7 +1580,7 @@
       <c r="A146" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1589,7 +1588,7 @@
       <c r="A147" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1597,7 +1596,7 @@
       <c r="A148" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1605,7 +1604,7 @@
       <c r="A149" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1613,7 +1612,7 @@
       <c r="A150" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1621,7 +1620,7 @@
       <c r="A151" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1629,7 +1628,7 @@
       <c r="A152" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1637,7 +1636,7 @@
       <c r="A153" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1645,7 +1644,7 @@
       <c r="A154" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1653,7 +1652,7 @@
       <c r="A155" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1661,7 +1660,7 @@
       <c r="A156" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1669,7 +1668,7 @@
       <c r="A157" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1677,7 +1676,7 @@
       <c r="A158" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1685,7 +1684,7 @@
       <c r="A159" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1693,7 +1692,7 @@
       <c r="A160" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1701,7 +1700,7 @@
       <c r="A161" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1709,7 +1708,7 @@
       <c r="A162" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1717,7 +1716,7 @@
       <c r="A163" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1725,7 +1724,7 @@
       <c r="A164" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1733,7 +1732,7 @@
       <c r="A165" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1741,7 +1740,7 @@
       <c r="A166" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1749,7 +1748,7 @@
       <c r="A167" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1757,7 +1756,7 @@
       <c r="A168" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1765,7 +1764,7 @@
       <c r="A169" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1773,7 +1772,7 @@
       <c r="A170" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1781,7 +1780,7 @@
       <c r="A171" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1789,7 +1788,7 @@
       <c r="A172" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1797,7 +1796,7 @@
       <c r="A173" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1805,7 +1804,7 @@
       <c r="A174" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1813,7 +1812,7 @@
       <c r="A175" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1821,7 +1820,7 @@
       <c r="A176" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1829,7 +1828,7 @@
       <c r="A177" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1837,7 +1836,7 @@
       <c r="A178" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1845,7 +1844,7 @@
       <c r="A179" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1853,7 +1852,7 @@
       <c r="A180" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1861,7 +1860,7 @@
       <c r="A181" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1869,7 +1868,7 @@
       <c r="A182" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1877,7 +1876,7 @@
       <c r="A183" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1885,7 +1884,7 @@
       <c r="A184" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1893,7 +1892,7 @@
       <c r="A185" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1901,7 +1900,7 @@
       <c r="A186" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1909,7 +1908,7 @@
       <c r="A187" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1917,7 +1916,7 @@
       <c r="A188" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1925,7 +1924,7 @@
       <c r="A189" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1933,7 +1932,7 @@
       <c r="A190" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1941,7 +1940,7 @@
       <c r="A191" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1949,7 +1948,7 @@
       <c r="A192" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1957,7 +1956,7 @@
       <c r="A193" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1965,7 +1964,7 @@
       <c r="A194" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1973,7 +1972,7 @@
       <c r="A195" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1981,7 +1980,7 @@
       <c r="A196" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1989,7 +1988,7 @@
       <c r="A197" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1997,7 +1996,7 @@
       <c r="A198" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2005,7 +2004,7 @@
       <c r="A199" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2013,7 +2012,7 @@
       <c r="A200" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2021,7 +2020,7 @@
       <c r="A201" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2029,7 +2028,7 @@
       <c r="A202" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2037,7 +2036,7 @@
       <c r="A203" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2045,7 +2044,7 @@
       <c r="A204" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2053,7 +2052,7 @@
       <c r="A205" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2061,7 +2060,7 @@
       <c r="A206" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2069,7 +2068,7 @@
       <c r="A207" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2077,7 +2076,7 @@
       <c r="A208" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2085,7 +2084,7 @@
       <c r="A209" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2093,7 +2092,7 @@
       <c r="A210" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2101,7 +2100,7 @@
       <c r="A211" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2109,7 +2108,7 @@
       <c r="A212" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2117,7 +2116,7 @@
       <c r="A213" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2125,7 +2124,7 @@
       <c r="A214" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2133,7 +2132,7 @@
       <c r="A215" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2141,7 +2140,7 @@
       <c r="A216" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2149,7 +2148,7 @@
       <c r="A217" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2157,7 +2156,7 @@
       <c r="A218" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2165,7 +2164,7 @@
       <c r="A219" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2173,7 +2172,7 @@
       <c r="A220" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2181,7 +2180,7 @@
       <c r="A221" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2189,7 +2188,7 @@
       <c r="A222" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2197,7 +2196,7 @@
       <c r="A223" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2205,7 +2204,7 @@
       <c r="A224" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2213,7 +2212,7 @@
       <c r="A225" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2221,7 +2220,7 @@
       <c r="A226" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2229,7 +2228,7 @@
       <c r="A227" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2237,7 +2236,7 @@
       <c r="A228" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2245,7 +2244,7 @@
       <c r="A229" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2253,7 +2252,7 @@
       <c r="A230" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2261,7 +2260,7 @@
       <c r="A231" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2269,7 +2268,7 @@
       <c r="A232" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2277,7 +2276,7 @@
       <c r="A233" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2285,7 +2284,7 @@
       <c r="A234" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2293,7 +2292,7 @@
       <c r="A235" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2301,7 +2300,7 @@
       <c r="A236" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2309,7 +2308,7 @@
       <c r="A237" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2317,7 +2316,7 @@
       <c r="A238" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2325,7 +2324,7 @@
       <c r="A239" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2333,7 +2332,7 @@
       <c r="A240" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2341,7 +2340,7 @@
       <c r="A241" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2349,7 +2348,7 @@
       <c r="A242" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2357,7 +2356,7 @@
       <c r="A243" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2365,7 +2364,7 @@
       <c r="A244" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2373,7 +2372,7 @@
       <c r="A245" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2381,13 +2380,120 @@
       <c r="A246" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5"/>
-      <c r="B247" s="5"/>
+      <c r="B247" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B248" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B249" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B250" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B251" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B252" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B253" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B254" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B255" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B256" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B257" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B258" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B259" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B260" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B261" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B262" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B263" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B264" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B265" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B266" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B267" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B268" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
